--- a/QS大学排名_2025-08-01.xlsx
+++ b/QS大学排名_2025-08-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3137,6 +3137,906 @@
         </is>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>University of Bath</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Bath, United Kingdom</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>152</v>
+      </c>
+      <c r="B152" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Michigan State University</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>East Lansing, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Nagoya University</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Nagoya, Japan</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>154</v>
+      </c>
+      <c r="B154" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Texas A&amp;M University</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>College Station, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>155</v>
+      </c>
+      <c r="B155" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>University of Geneva</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Geneva, Switzerland</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>University of North Carolina at Chapel Hill</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Chapel Hill, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Wageningen University &amp; Research</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Wageningen, Netherlands</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>158</v>
+      </c>
+      <c r="B158" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Erasmus University Rotterdam</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Rotterdam, Netherlands</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>159</v>
+      </c>
+      <c r="B159" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>University of Groningen</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Groningen, Netherlands</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Université de Montréal</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Montreal, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>161</v>
+      </c>
+      <c r="B161" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>University of Bern</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Bern, Switzerland</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>162</v>
+      </c>
+      <c r="B162" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Hanyang University</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Seoul, South Korea</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>163</v>
+      </c>
+      <c r="B163" t="n">
+        <v>51</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Al-Farabi Kazakh National University</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Almaty, Kazakhstan</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>164</v>
+      </c>
+      <c r="B164" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Complutense University of Madrid</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Madrid, Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>165</v>
+      </c>
+      <c r="B165" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Universitat de Barcelona</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Barcelona, Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>University of Liverpool</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Liverpool, United Kingdom</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>167</v>
+      </c>
+      <c r="B167" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Kyushu University</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Fukuoka City, Japan</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>University of Wollongong</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Wollongong, Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>169</v>
+      </c>
+      <c r="B169" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Ghent University</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Ghent, Belgium</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>University of Exeter</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Exeter, United Kingdom</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>171</v>
+      </c>
+      <c r="B171" t="n">
+        <v>50</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>University of Cape Town</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Cape Town, South Africa</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Washington University in St. Louis</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>St. Louis, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>University of Reading</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Reading, United Kingdom</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Hokkaido University</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Sapporo, Japan</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Curtin University</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Perth, Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Universitat Autònoma de Barcelona</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Barcelona, Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>49</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>McMaster University</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Hamilton, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>178</v>
+      </c>
+      <c r="B178" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>University of California, Santa Barbara (UCSB)</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Santa Barbara, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>179</v>
+      </c>
+      <c r="B179" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>The University of Newcastle, Australia (UON)</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Callaghan, Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Universidad de los Andes</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Bogotá, Colombia</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>181</v>
+      </c>
+      <c r="B181" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Universiti Teknologi Malaysia</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Skudai, Malaysia</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Waseda University</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Tokyo, Japan</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>183</v>
+      </c>
+      <c r="B183" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Hamad bin Khalifa University</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Doha, Qatar</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>184</v>
+      </c>
+      <c r="B184" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>University of York</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>York, United Kingdom</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>185</v>
+      </c>
+      <c r="B185" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Tecnológico de Monterrey</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Monterrey, Mexico</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>186</v>
+      </c>
+      <c r="B186" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Cardiff University</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Cardiff, United Kingdom</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>187</v>
+      </c>
+      <c r="B187" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>École Normale Supérieure de Lyon</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Lyon, France</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>188</v>
+      </c>
+      <c r="B188" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Keio University</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Tokyo, Japan</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>189</v>
+      </c>
+      <c r="B189" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>University of Ottawa</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Ottawa, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>190</v>
+      </c>
+      <c r="B190" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Technische Universität Wien</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Vienna, Austria</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>191</v>
+      </c>
+      <c r="B191" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Universität Hamburg</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Hamburg, Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>192</v>
+      </c>
+      <c r="B192" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Tongji University</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Shanghai, China (Mainland)</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>193</v>
+      </c>
+      <c r="B193" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Queen's University at Kingston</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Kingston, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>194</v>
+      </c>
+      <c r="B194" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>University of Gothenburg</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Gothenburg, Sweden</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Wuhan University</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Wuhan, China (Mainland)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>196</v>
+      </c>
+      <c r="B196" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Emory University</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Atlanta, United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>197</v>
+      </c>
+      <c r="B197" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Deakin University</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Melbourne, Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>198</v>
+      </c>
+      <c r="B198" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Universidad Autónoma de Madrid</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Madrid, Spain</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>University of Calgary</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Calgary, Canada</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>200</v>
+      </c>
+      <c r="B200" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Arizona State University</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Tempe, United States</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
